--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signal.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBRE22_Signal.xlsx
@@ -64,14 +64,6 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\RE_2.2\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
     <t xml:space="preserve">wait(3);
 validate1;
 link_Click(RE22_signal_test_link);
@@ -440,6 +432,14 @@
 press_Key(Home);
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 wait(3);</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\RE_2.2\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -970,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -991,16 +993,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1018,16 +1020,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1045,16 +1047,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1072,16 +1074,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1099,16 +1101,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1126,16 +1128,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1153,16 +1155,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1180,16 +1182,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1207,16 +1209,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1234,16 +1236,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1261,16 +1263,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
